--- a/biology/Zoologie/Canard_de_Smith/Canard_de_Smith.xlsx
+++ b/biology/Zoologie/Canard_de_Smith/Canard_de_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spatula smithii
 Le Canard de Smith (Spatula smithii, anciennement Anas smithii), aussi appelé Souchet du Cap, Canard du Cap, Canard souchet du Cap, ou Sarcelle de Smith est une espèce d'oiseau de la famille des anatidés.
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Afrique australe.
 </t>
